--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R9bc7e2e6519f463e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R708d8b4152b2456e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R708d8b4152b2456e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rb44f714f8ff54011"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rb44f714f8ff54011"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R9141bdf3e7a74bef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R9141bdf3e7a74bef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rbe79b84e68734376"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rbe79b84e68734376"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re524be7d1dd24675"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Re524be7d1dd24675"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd72760a884a24b85"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rd72760a884a24b85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R734a0d46ee164e1d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R734a0d46ee164e1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R115aa1e1e99a4a19"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R115aa1e1e99a4a19"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rb7e311281b7e4a88"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Rb7e311281b7e4a88"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Red1c08757e1a4339"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Red1c08757e1a4339"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R93db7fd49e584dd0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R93db7fd49e584dd0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R6622bbd2ddb9408c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/024_PercentageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="R6622bbd2ddb9408c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PercentageFormula" sheetId="1" r:id="Ra4808bd756c8461c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
